--- a/hw1_answer.xlsx
+++ b/hw1_answer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\연구실\교육\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoon9\Desktop\1125\--\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884E700D-BF49-4BCC-92CA-E9D78A5C152B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW1" sheetId="1" r:id="rId1"/>
@@ -135,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,16 +459,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -487,22 +488,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -515,16 +516,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -541,17 +542,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -563,16 +564,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -604,27 +605,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
